--- a/Bible.xlsx
+++ b/Bible.xlsx
@@ -4114,3475 +4114,3475 @@
     <t>Chrisyrna</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>900:8813</t>
-  </si>
-  <si>
-    <t>900:8529</t>
-  </si>
-  <si>
-    <t>900:8841</t>
-  </si>
-  <si>
-    <t>900:8502</t>
-  </si>
-  <si>
-    <t>900:8435</t>
-  </si>
-  <si>
-    <t>900:8699</t>
-  </si>
-  <si>
-    <t>900:8462</t>
-  </si>
-  <si>
-    <t>900:8896</t>
-  </si>
-  <si>
-    <t>900:8651</t>
-  </si>
-  <si>
-    <t>900:9037</t>
-  </si>
-  <si>
-    <t>900:9029</t>
-  </si>
-  <si>
-    <t>900:8477</t>
-  </si>
-  <si>
-    <t>900:8317</t>
-  </si>
-  <si>
-    <t>900:8527</t>
-  </si>
-  <si>
-    <t>900:8327</t>
-  </si>
-  <si>
-    <t>900:8830</t>
-  </si>
-  <si>
-    <t>900:8332</t>
-  </si>
-  <si>
-    <t>900:8824</t>
-  </si>
-  <si>
-    <t>900:8690</t>
-  </si>
-  <si>
-    <t>900:8663</t>
-  </si>
-  <si>
-    <t>900:8422</t>
-  </si>
-  <si>
-    <t>900:9033</t>
-  </si>
-  <si>
-    <t>900:8271</t>
-  </si>
-  <si>
-    <t>900:9008</t>
-  </si>
-  <si>
-    <t>900:8913</t>
-  </si>
-  <si>
-    <t>900:8378</t>
-  </si>
-  <si>
-    <t>900:8871</t>
-  </si>
-  <si>
-    <t>900:8675</t>
-  </si>
-  <si>
-    <t>900:8445</t>
-  </si>
-  <si>
-    <t>900:8423</t>
-  </si>
-  <si>
-    <t>900:8305</t>
-  </si>
-  <si>
-    <t>900:8389</t>
-  </si>
-  <si>
-    <t>900:8809</t>
-  </si>
-  <si>
-    <t>900:8986</t>
-  </si>
-  <si>
-    <t>900:8380</t>
-  </si>
-  <si>
-    <t>900:8354</t>
-  </si>
-  <si>
-    <t>900:8487</t>
-  </si>
-  <si>
-    <t>900:8804</t>
-  </si>
-  <si>
-    <t>900:9039</t>
-  </si>
-  <si>
-    <t>900:8636</t>
-  </si>
-  <si>
-    <t>900:8393</t>
-  </si>
-  <si>
-    <t>900:8676</t>
-  </si>
-  <si>
-    <t>900:8262</t>
-  </si>
-  <si>
-    <t>900:8479</t>
-  </si>
-  <si>
-    <t>900:8654</t>
-  </si>
-  <si>
-    <t>900:8590</t>
-  </si>
-  <si>
-    <t>900:8545</t>
-  </si>
-  <si>
-    <t>900:9015</t>
-  </si>
-  <si>
-    <t>900:8310</t>
-  </si>
-  <si>
-    <t>900:8360</t>
-  </si>
-  <si>
-    <t>900:9003</t>
-  </si>
-  <si>
-    <t>900:8321</t>
-  </si>
-  <si>
-    <t>900:8805</t>
-  </si>
-  <si>
-    <t>900:8997</t>
-  </si>
-  <si>
-    <t>900:8428</t>
-  </si>
-  <si>
-    <t>900:8815</t>
-  </si>
-  <si>
-    <t>900:8324</t>
-  </si>
-  <si>
-    <t>900:8515</t>
-  </si>
-  <si>
-    <t>900:8607</t>
-  </si>
-  <si>
-    <t>900:8436</t>
-  </si>
-  <si>
-    <t>900:8881</t>
-  </si>
-  <si>
-    <t>900:8648</t>
-  </si>
-  <si>
-    <t>900:8549</t>
-  </si>
-  <si>
-    <t>900:8963</t>
-  </si>
-  <si>
-    <t>900:8420</t>
-  </si>
-  <si>
-    <t>900:8434</t>
-  </si>
-  <si>
-    <t>900:8456</t>
-  </si>
-  <si>
-    <t>900:8670</t>
-  </si>
-  <si>
-    <t>900:8469</t>
-  </si>
-  <si>
-    <t>900:8472</t>
-  </si>
-  <si>
-    <t>900:8291</t>
-  </si>
-  <si>
-    <t>900:8536</t>
-  </si>
-  <si>
-    <t>900:8277</t>
-  </si>
-  <si>
-    <t>900:8633</t>
-  </si>
-  <si>
-    <t>900:9017</t>
-  </si>
-  <si>
-    <t>900:8565</t>
-  </si>
-  <si>
-    <t>900:8671</t>
-  </si>
-  <si>
-    <t>900:9049</t>
-  </si>
-  <si>
-    <t>900:8611</t>
-  </si>
-  <si>
-    <t>900:8951</t>
-  </si>
-  <si>
-    <t>900:8413</t>
-  </si>
-  <si>
-    <t>900:8355</t>
-  </si>
-  <si>
-    <t>900:9010</t>
-  </si>
-  <si>
-    <t>900:8621</t>
-  </si>
-  <si>
-    <t>900:8522</t>
-  </si>
-  <si>
-    <t>900:8347</t>
-  </si>
-  <si>
-    <t>900:8330</t>
-  </si>
-  <si>
-    <t>900:8408</t>
-  </si>
-  <si>
-    <t>900:8960</t>
-  </si>
-  <si>
-    <t>900:8952</t>
-  </si>
-  <si>
-    <t>900:8405</t>
-  </si>
-  <si>
-    <t>900:8372</t>
-  </si>
-  <si>
-    <t>900:8531</t>
-  </si>
-  <si>
-    <t>900:8452</t>
-  </si>
-  <si>
-    <t>900:8614</t>
-  </si>
-  <si>
-    <t>900:8992</t>
-  </si>
-  <si>
-    <t>900:8548</t>
-  </si>
-  <si>
-    <t>900:8959</t>
-  </si>
-  <si>
-    <t>900:8965</t>
-  </si>
-  <si>
-    <t>900:8455</t>
-  </si>
-  <si>
-    <t>900:8659</t>
-  </si>
-  <si>
-    <t>900:8282</t>
-  </si>
-  <si>
-    <t>900:8582</t>
-  </si>
-  <si>
-    <t>900:8554</t>
-  </si>
-  <si>
-    <t>900:8335</t>
-  </si>
-  <si>
-    <t>900:8970</t>
-  </si>
-  <si>
-    <t>900:8693</t>
-  </si>
-  <si>
-    <t>900:8559</t>
-  </si>
-  <si>
-    <t>900:8438</t>
-  </si>
-  <si>
-    <t>900:8458</t>
-  </si>
-  <si>
-    <t>900:8466</t>
-  </si>
-  <si>
-    <t>900:8610</t>
-  </si>
-  <si>
-    <t>900:8300</t>
-  </si>
-  <si>
-    <t>900:8369</t>
-  </si>
-  <si>
-    <t>900:8593</t>
-  </si>
-  <si>
-    <t>900:8632</t>
-  </si>
-  <si>
-    <t>900:8591</t>
-  </si>
-  <si>
-    <t>900:8494</t>
-  </si>
-  <si>
-    <t>900:9034</t>
-  </si>
-  <si>
-    <t>900:8295</t>
-  </si>
-  <si>
-    <t>900:9001</t>
-  </si>
-  <si>
-    <t>900:8576</t>
-  </si>
-  <si>
-    <t>900:8528</t>
-  </si>
-  <si>
-    <t>900:8308</t>
-  </si>
-  <si>
-    <t>900:8387</t>
-  </si>
-  <si>
-    <t>900:8668</t>
-  </si>
-  <si>
-    <t>900:9022</t>
-  </si>
-  <si>
-    <t>900:8638</t>
-  </si>
-  <si>
-    <t>900:8437</t>
-  </si>
-  <si>
-    <t>900:8481</t>
-  </si>
-  <si>
-    <t>900:8333</t>
-  </si>
-  <si>
-    <t>900:8606</t>
-  </si>
-  <si>
-    <t>900:8984</t>
-  </si>
-  <si>
-    <t>900:8812</t>
-  </si>
-  <si>
-    <t>900:8546</t>
-  </si>
-  <si>
-    <t>900:8987</t>
-  </si>
-  <si>
-    <t>900:9025</t>
-  </si>
-  <si>
-    <t>900:8642</t>
-  </si>
-  <si>
-    <t>900:8429</t>
-  </si>
-  <si>
-    <t>900:8543</t>
-  </si>
-  <si>
-    <t>900:8284</t>
-  </si>
-  <si>
-    <t>900:8807</t>
-  </si>
-  <si>
-    <t>900:9031</t>
-  </si>
-  <si>
-    <t>900:8615</t>
-  </si>
-  <si>
-    <t>900:8891</t>
-  </si>
-  <si>
-    <t>900:8370</t>
-  </si>
-  <si>
-    <t>900:8975</t>
-  </si>
-  <si>
-    <t>900:8826</t>
-  </si>
-  <si>
-    <t>900:8495</t>
-  </si>
-  <si>
-    <t>900:8267</t>
-  </si>
-  <si>
-    <t>900:8855</t>
-  </si>
-  <si>
-    <t>900:8680</t>
-  </si>
-  <si>
-    <t>900:8520</t>
-  </si>
-  <si>
-    <t>900:8696</t>
-  </si>
-  <si>
-    <t>900:8757</t>
-  </si>
-  <si>
-    <t>900:8338</t>
-  </si>
-  <si>
-    <t>900:8677</t>
-  </si>
-  <si>
-    <t>900:8988</t>
-  </si>
-  <si>
-    <t>900:8516</t>
-  </si>
-  <si>
-    <t>900:8561</t>
-  </si>
-  <si>
-    <t>900:8264</t>
-  </si>
-  <si>
-    <t>900:8874</t>
-  </si>
-  <si>
-    <t>900:8294</t>
-  </si>
-  <si>
-    <t>900:8661</t>
-  </si>
-  <si>
-    <t>900:8652</t>
-  </si>
-  <si>
-    <t>900:8519</t>
-  </si>
-  <si>
-    <t>900:8679</t>
-  </si>
-  <si>
-    <t>900:8350</t>
-  </si>
-  <si>
-    <t>900:8417</t>
-  </si>
-  <si>
-    <t>900:8597</t>
-  </si>
-  <si>
-    <t>900:8875</t>
-  </si>
-  <si>
-    <t>900:8386</t>
-  </si>
-  <si>
-    <t>900:8341</t>
-  </si>
-  <si>
-    <t>900:9002</t>
-  </si>
-  <si>
-    <t>900:8488</t>
-  </si>
-  <si>
-    <t>900:8982</t>
-  </si>
-  <si>
-    <t>900:8821</t>
-  </si>
-  <si>
-    <t>900:8630</t>
-  </si>
-  <si>
-    <t>900:8801</t>
-  </si>
-  <si>
-    <t>900:8334</t>
-  </si>
-  <si>
-    <t>900:8287</t>
-  </si>
-  <si>
-    <t>900:8993</t>
-  </si>
-  <si>
-    <t>900:8345</t>
-  </si>
-  <si>
-    <t>900:8623</t>
-  </si>
-  <si>
-    <t>900:8585</t>
-  </si>
-  <si>
-    <t>900:9050</t>
-  </si>
-  <si>
-    <t>900:8672</t>
-  </si>
-  <si>
-    <t>900:8650</t>
-  </si>
-  <si>
-    <t>900:8686</t>
-  </si>
-  <si>
-    <t>900:8601</t>
-  </si>
-  <si>
-    <t>900:8977</t>
-  </si>
-  <si>
-    <t>900:8418</t>
-  </si>
-  <si>
-    <t>900:8465</t>
-  </si>
-  <si>
-    <t>900:8459</t>
-  </si>
-  <si>
-    <t>900:8694</t>
-  </si>
-  <si>
-    <t>900:9028</t>
-  </si>
-  <si>
-    <t>900:8382</t>
-  </si>
-  <si>
-    <t>900:8828</t>
-  </si>
-  <si>
-    <t>900:8461</t>
-  </si>
-  <si>
-    <t>900:8503</t>
-  </si>
-  <si>
-    <t>900:8989</t>
-  </si>
-  <si>
-    <t>900:8373</t>
-  </si>
-  <si>
-    <t>900:8571</t>
-  </si>
-  <si>
-    <t>900:8592</t>
-  </si>
-  <si>
-    <t>900:8550</t>
-  </si>
-  <si>
-    <t>900:8802</t>
-  </si>
-  <si>
-    <t>900:8508</t>
-  </si>
-  <si>
-    <t>900:8416</t>
-  </si>
-  <si>
-    <t>900:246</t>
-  </si>
-  <si>
-    <t>900:8289</t>
-  </si>
-  <si>
-    <t>900:8304</t>
-  </si>
-  <si>
-    <t>900:8290</t>
-  </si>
-  <si>
-    <t>900:8478</t>
-  </si>
-  <si>
-    <t>900:8595</t>
-  </si>
-  <si>
-    <t>900:8454</t>
-  </si>
-  <si>
-    <t>900:8613</t>
-  </si>
-  <si>
-    <t>900:9000</t>
-  </si>
-  <si>
-    <t>900:8340</t>
-  </si>
-  <si>
-    <t>900:8329</t>
-  </si>
-  <si>
-    <t>900:8518</t>
-  </si>
-  <si>
-    <t>900:8664</t>
-  </si>
-  <si>
-    <t>900:8439</t>
-  </si>
-  <si>
-    <t>900:8269</t>
-  </si>
-  <si>
-    <t>900:8399</t>
-  </si>
-  <si>
-    <t>900:8897</t>
-  </si>
-  <si>
-    <t>900:8484</t>
-  </si>
-  <si>
-    <t>900:8510</t>
-  </si>
-  <si>
-    <t>900:8577</t>
-  </si>
-  <si>
-    <t>900:9038</t>
-  </si>
-  <si>
-    <t>900:8644</t>
-  </si>
-  <si>
-    <t>900:8392</t>
-  </si>
-  <si>
-    <t>900:8283</t>
-  </si>
-  <si>
-    <t>900:8309</t>
-  </si>
-  <si>
-    <t>900:8486</t>
-  </si>
-  <si>
-    <t>900:8444</t>
-  </si>
-  <si>
-    <t>900:8491</t>
-  </si>
-  <si>
-    <t>900:8303</t>
-  </si>
-  <si>
-    <t>900:8534</t>
-  </si>
-  <si>
-    <t>900:8700</t>
-  </si>
-  <si>
-    <t>900:8552</t>
-  </si>
-  <si>
-    <t>900:8803</t>
-  </si>
-  <si>
-    <t>900:8315</t>
-  </si>
-  <si>
-    <t>900:8996</t>
-  </si>
-  <si>
-    <t>900:8419</t>
-  </si>
-  <si>
-    <t>900:8578</t>
-  </si>
-  <si>
-    <t>900:8532</t>
-  </si>
-  <si>
-    <t>900:8645</t>
-  </si>
-  <si>
-    <t>900:8695</t>
-  </si>
-  <si>
-    <t>900:8564</t>
-  </si>
-  <si>
-    <t>900:8457</t>
-  </si>
-  <si>
-    <t>900:8296</t>
-  </si>
-  <si>
-    <t>900:8628</t>
-  </si>
-  <si>
-    <t>900:8288</t>
-  </si>
-  <si>
-    <t>900:8343</t>
-  </si>
-  <si>
-    <t>900:8634</t>
-  </si>
-  <si>
-    <t>900:8314</t>
-  </si>
-  <si>
-    <t>900:8629</t>
-  </si>
-  <si>
-    <t>900:8450</t>
-  </si>
-  <si>
-    <t>900:8999</t>
-  </si>
-  <si>
-    <t>900:8316</t>
-  </si>
-  <si>
-    <t>900:8566</t>
-  </si>
-  <si>
-    <t>900:8525</t>
-  </si>
-  <si>
-    <t>900:8281</t>
-  </si>
-  <si>
-    <t>900:8603</t>
-  </si>
-  <si>
-    <t>900:8608</t>
-  </si>
-  <si>
-    <t>900:8298</t>
-  </si>
-  <si>
-    <t>900:8537</t>
-  </si>
-  <si>
-    <t>900:9048</t>
-  </si>
-  <si>
-    <t>900:8299</t>
-  </si>
-  <si>
-    <t>900:8451</t>
-  </si>
-  <si>
-    <t>900:8526</t>
-  </si>
-  <si>
-    <t>900:8390</t>
-  </si>
-  <si>
-    <t>900:8496</t>
-  </si>
-  <si>
-    <t>900:8285</t>
-  </si>
-  <si>
-    <t>900:8854</t>
-  </si>
-  <si>
-    <t>900:8286</t>
-  </si>
-  <si>
-    <t>900:8834</t>
-  </si>
-  <si>
-    <t>900:9026</t>
-  </si>
-  <si>
-    <t>900:8322</t>
-  </si>
-  <si>
-    <t>900:8839</t>
-  </si>
-  <si>
-    <t>900:8540</t>
-  </si>
-  <si>
-    <t>900:8624</t>
-  </si>
-  <si>
-    <t>900:8697</t>
-  </si>
-  <si>
-    <t>900:9013</t>
-  </si>
-  <si>
-    <t>900:8447</t>
-  </si>
-  <si>
-    <t>900:8273</t>
-  </si>
-  <si>
-    <t>900:8430</t>
-  </si>
-  <si>
-    <t>900:8473</t>
-  </si>
-  <si>
-    <t>900:8331</t>
-  </si>
-  <si>
-    <t>900:8814</t>
-  </si>
-  <si>
-    <t>900:8646</t>
-  </si>
-  <si>
-    <t>900:8580</t>
-  </si>
-  <si>
-    <t>900:8400</t>
-  </si>
-  <si>
-    <t>900:8890</t>
-  </si>
-  <si>
-    <t>900:8605</t>
-  </si>
-  <si>
-    <t>900:8827</t>
-  </si>
-  <si>
-    <t>900:8367</t>
-  </si>
-  <si>
-    <t>900:8691</t>
-  </si>
-  <si>
-    <t>900:8553</t>
-  </si>
-  <si>
-    <t>900:8279</t>
-  </si>
-  <si>
-    <t>900:8313</t>
-  </si>
-  <si>
-    <t>900:8396</t>
-  </si>
-  <si>
-    <t>900:8560</t>
-  </si>
-  <si>
-    <t>900:8567</t>
-  </si>
-  <si>
-    <t>900:8471</t>
-  </si>
-  <si>
-    <t>900:8302</t>
-  </si>
-  <si>
-    <t>900:8587</t>
-  </si>
-  <si>
-    <t>900:8326</t>
-  </si>
-  <si>
-    <t>900:8470</t>
-  </si>
-  <si>
-    <t>900:8968</t>
-  </si>
-  <si>
-    <t>900:8983</t>
-  </si>
-  <si>
-    <t>900:8966</t>
-  </si>
-  <si>
-    <t>900:8535</t>
-  </si>
-  <si>
-    <t>900:8318</t>
-  </si>
-  <si>
-    <t>900:8511</t>
-  </si>
-  <si>
-    <t>900:8411</t>
-  </si>
-  <si>
-    <t>900:9041</t>
-  </si>
-  <si>
-    <t>900:8658</t>
-  </si>
-  <si>
-    <t>900:8501</t>
-  </si>
-  <si>
-    <t>900:8384</t>
-  </si>
-  <si>
-    <t>900:8639</t>
-  </si>
-  <si>
-    <t>900:8480</t>
-  </si>
-  <si>
-    <t>900:8641</t>
-  </si>
-  <si>
-    <t>900:8900</t>
-  </si>
-  <si>
-    <t>900:8506</t>
-  </si>
-  <si>
-    <t>900:8581</t>
-  </si>
-  <si>
-    <t>900:9047</t>
-  </si>
-  <si>
-    <t>900:8573</t>
-  </si>
-  <si>
-    <t>900:8873</t>
-  </si>
-  <si>
-    <t>900:8297</t>
-  </si>
-  <si>
-    <t>900:8517</t>
-  </si>
-  <si>
-    <t>900:8833</t>
-  </si>
-  <si>
-    <t>900:8346</t>
-  </si>
-  <si>
-    <t>900:8912</t>
-  </si>
-  <si>
-    <t>900:8490</t>
-  </si>
-  <si>
-    <t>900:8574</t>
-  </si>
-  <si>
-    <t>900:8395</t>
-  </si>
-  <si>
-    <t>900:8586</t>
-  </si>
-  <si>
-    <t>900:8575</t>
-  </si>
-  <si>
-    <t>900:8665</t>
-  </si>
-  <si>
-    <t>900:8868</t>
-  </si>
-  <si>
-    <t>900:8278</t>
-  </si>
-  <si>
-    <t>900:8489</t>
-  </si>
-  <si>
-    <t>900:8348</t>
-  </si>
-  <si>
-    <t>900:8604</t>
-  </si>
-  <si>
-    <t>900:8464</t>
-  </si>
-  <si>
-    <t>900:8880</t>
-  </si>
-  <si>
-    <t>900:8306</t>
-  </si>
-  <si>
-    <t>900:8599</t>
-  </si>
-  <si>
-    <t>900:8474</t>
-  </si>
-  <si>
-    <t>900:8971</t>
-  </si>
-  <si>
-    <t>900:8275</t>
-  </si>
-  <si>
-    <t>900:8509</t>
-  </si>
-  <si>
-    <t>900:8810</t>
-  </si>
-  <si>
-    <t>900:8292</t>
-  </si>
-  <si>
-    <t>900:8468</t>
-  </si>
-  <si>
-    <t>900:8493</t>
-  </si>
-  <si>
-    <t>900:8460</t>
-  </si>
-  <si>
-    <t>900:8831</t>
-  </si>
-  <si>
-    <t>900:8301</t>
-  </si>
-  <si>
-    <t>900:8499</t>
-  </si>
-  <si>
-    <t>900:8538</t>
-  </si>
-  <si>
-    <t>900:9023</t>
-  </si>
-  <si>
-    <t>900:8852</t>
-  </si>
-  <si>
-    <t>900:8339</t>
-  </si>
-  <si>
-    <t>900:8544</t>
-  </si>
-  <si>
-    <t>900:8266</t>
-  </si>
-  <si>
-    <t>900:8424</t>
-  </si>
-  <si>
-    <t>900:902</t>
-  </si>
-  <si>
-    <t>900:8320</t>
-  </si>
-  <si>
-    <t>900:8475</t>
-  </si>
-  <si>
-    <t>900:8811</t>
-  </si>
-  <si>
-    <t>900:8325</t>
-  </si>
-  <si>
-    <t>900:8523</t>
-  </si>
-  <si>
-    <t>900:9036</t>
-  </si>
-  <si>
-    <t>900:8647</t>
-  </si>
-  <si>
-    <t>900:8421</t>
-  </si>
-  <si>
-    <t>900:8978</t>
-  </si>
-  <si>
-    <t>900:8498</t>
-  </si>
-  <si>
-    <t>900:8280</t>
-  </si>
-  <si>
-    <t>900:8547</t>
-  </si>
-  <si>
-    <t>900:8319</t>
-  </si>
-  <si>
-    <t>900:8817</t>
-  </si>
-  <si>
-    <t>900:8806</t>
-  </si>
-  <si>
-    <t>900:8521</t>
-  </si>
-  <si>
-    <t>900:8816</t>
-  </si>
-  <si>
-    <t>900:8463</t>
-  </si>
-  <si>
-    <t>900:8381</t>
-  </si>
-  <si>
-    <t>900:8844</t>
-  </si>
-  <si>
-    <t>900:9045</t>
-  </si>
-  <si>
-    <t>900:8857</t>
-  </si>
-  <si>
-    <t>900:8453</t>
-  </si>
-  <si>
-    <t>900:8895</t>
-  </si>
-  <si>
-    <t>900:8612</t>
-  </si>
-  <si>
-    <t>21:40273</t>
-  </si>
-  <si>
-    <t>21:41349</t>
-  </si>
-  <si>
-    <t>21:40015</t>
-  </si>
-  <si>
-    <t>21:40017</t>
-  </si>
-  <si>
-    <t>21:40159</t>
-  </si>
-  <si>
-    <t>21:40478</t>
-  </si>
-  <si>
-    <t>21:40052</t>
-  </si>
-  <si>
-    <t>21:40466</t>
-  </si>
-  <si>
-    <t>21:40059</t>
-  </si>
-  <si>
-    <t>21:40400</t>
-  </si>
-  <si>
-    <t>21:40612</t>
-  </si>
-  <si>
-    <t>21:40013</t>
-  </si>
-  <si>
-    <t>21:41227</t>
-  </si>
-  <si>
-    <t>21:40001</t>
-  </si>
-  <si>
-    <t>21:40354</t>
-  </si>
-  <si>
-    <t>21:40002</t>
-  </si>
-  <si>
-    <t>21:40442</t>
-  </si>
-  <si>
-    <t>21:40735</t>
-  </si>
-  <si>
-    <t>21:40018</t>
-  </si>
-  <si>
-    <t>21:40399</t>
-  </si>
-  <si>
-    <t>21:40010</t>
-  </si>
-  <si>
-    <t>21:40023</t>
-  </si>
-  <si>
-    <t>21:40527</t>
-  </si>
-  <si>
-    <t>21:40003</t>
-  </si>
-  <si>
-    <t>21:40449</t>
-  </si>
-  <si>
-    <t>21:40014</t>
-  </si>
-  <si>
-    <t>21:41248</t>
-  </si>
-  <si>
-    <t>21:40405</t>
-  </si>
-  <si>
-    <t>21:40696</t>
-  </si>
-  <si>
-    <t>21:40365</t>
-  </si>
-  <si>
-    <t>21:41140</t>
-  </si>
-  <si>
-    <t>21:40726</t>
-  </si>
-  <si>
-    <t>21:40050</t>
-  </si>
-  <si>
-    <t>21:40006</t>
-  </si>
-  <si>
-    <t>21:40022</t>
-  </si>
-  <si>
-    <t>21:40020</t>
-  </si>
-  <si>
-    <t>21:41336</t>
-  </si>
-  <si>
-    <t>21:40719</t>
-  </si>
-  <si>
-    <t>21:41360</t>
-  </si>
-  <si>
-    <t>21:41222</t>
-  </si>
-  <si>
-    <t>21:40412</t>
-  </si>
-  <si>
-    <t>21:41142</t>
-  </si>
-  <si>
-    <t>21:41238</t>
-  </si>
-  <si>
-    <t>21:40279</t>
-  </si>
-  <si>
-    <t>21:41394</t>
-  </si>
-  <si>
-    <t>21:40433</t>
-  </si>
-  <si>
-    <t>21:40327</t>
-  </si>
-  <si>
-    <t>21:40816</t>
-  </si>
-  <si>
-    <t>21:40067</t>
-  </si>
-  <si>
-    <t>21:40720</t>
-  </si>
-  <si>
-    <t>21:40438</t>
-  </si>
-  <si>
-    <t>21:40480</t>
-  </si>
-  <si>
-    <t>21:41219</t>
-  </si>
-  <si>
-    <t>21:40435</t>
-  </si>
-  <si>
-    <t>21:40548</t>
-  </si>
-  <si>
-    <t>21:40214</t>
-  </si>
-  <si>
-    <t>21:40114</t>
-  </si>
-  <si>
-    <t>21:40591</t>
-  </si>
-  <si>
-    <t>21:40652</t>
-  </si>
-  <si>
-    <t>21:40496</t>
-  </si>
-  <si>
-    <t>21:40604</t>
-  </si>
-  <si>
-    <t>21:41216</t>
-  </si>
-  <si>
-    <t>21:41206</t>
-  </si>
-  <si>
-    <t>21:40150</t>
-  </si>
-  <si>
-    <t>21:40805</t>
-  </si>
-  <si>
-    <t>21:41035</t>
-  </si>
-  <si>
-    <t>21:40849</t>
-  </si>
-  <si>
-    <t>21:41314</t>
-  </si>
-  <si>
-    <t>21:41069</t>
-  </si>
-  <si>
-    <t>21:40822</t>
-  </si>
-  <si>
-    <t>21:40566</t>
-  </si>
-  <si>
-    <t>21:40848</t>
-  </si>
-  <si>
-    <t>21:40470</t>
-  </si>
-  <si>
-    <t>21:40664</t>
-  </si>
-  <si>
-    <t>21:40032</t>
-  </si>
-  <si>
-    <t>21:40115</t>
-  </si>
-  <si>
-    <t>21:40802</t>
-  </si>
-  <si>
-    <t>21:40809</t>
-  </si>
-  <si>
-    <t>21:41005</t>
-  </si>
-  <si>
-    <t>21:40029</t>
-  </si>
-  <si>
-    <t>21:40366</t>
-  </si>
-  <si>
-    <t>21:41075</t>
-  </si>
-  <si>
-    <t>21:40236</t>
-  </si>
-  <si>
-    <t>21:40227</t>
-  </si>
-  <si>
-    <t>21:40686</t>
-  </si>
-  <si>
-    <t>21:40554</t>
-  </si>
-  <si>
-    <t>21:41236</t>
-  </si>
-  <si>
-    <t>21:40829</t>
-  </si>
-  <si>
-    <t>21:40322</t>
-  </si>
-  <si>
-    <t>21:41361</t>
-  </si>
-  <si>
-    <t>21:40593</t>
-  </si>
-  <si>
-    <t>21:40817</t>
-  </si>
-  <si>
-    <t>21:40572</t>
-  </si>
-  <si>
-    <t>21:41341</t>
-  </si>
-  <si>
-    <t>21:40494</t>
-  </si>
-  <si>
-    <t>21:40073</t>
-  </si>
-  <si>
-    <t>21:40836</t>
-  </si>
-  <si>
-    <t>21:41302</t>
-  </si>
-  <si>
-    <t>21:40101</t>
-  </si>
-  <si>
-    <t>21:40847</t>
-  </si>
-  <si>
-    <t>21:40519</t>
-  </si>
-  <si>
-    <t>21:40232</t>
-  </si>
-  <si>
-    <t>21:40448</t>
-  </si>
-  <si>
-    <t>21:41369</t>
-  </si>
-  <si>
-    <t>21:40459</t>
-  </si>
-  <si>
-    <t>21:40261</t>
-  </si>
-  <si>
-    <t>21:40343</t>
-  </si>
-  <si>
-    <t>21:41230</t>
-  </si>
-  <si>
-    <t>21:40450</t>
-  </si>
-  <si>
-    <t>21:40601</t>
-  </si>
-  <si>
-    <t>21:40287</t>
-  </si>
-  <si>
-    <t>21:40833</t>
-  </si>
-  <si>
-    <t>21:40827</t>
-  </si>
-  <si>
-    <t>21:40080</t>
-  </si>
-  <si>
-    <t>21:40825</t>
-  </si>
-  <si>
-    <t>21:40481</t>
-  </si>
-  <si>
-    <t>21:40289</t>
-  </si>
-  <si>
-    <t>21:40621</t>
-  </si>
-  <si>
-    <t>21:40465</t>
-  </si>
-  <si>
-    <t>21:40567</t>
-  </si>
-  <si>
-    <t>21:40292</t>
-  </si>
-  <si>
-    <t>21:40683</t>
-  </si>
-  <si>
-    <t>21:40487</t>
-  </si>
-  <si>
-    <t>21:40475</t>
-  </si>
-  <si>
-    <t>21:41212</t>
-  </si>
-  <si>
-    <t>21:41119</t>
-  </si>
-  <si>
-    <t>21:41116</t>
-  </si>
-  <si>
-    <t>21:41228</t>
-  </si>
-  <si>
-    <t>21:40130</t>
-  </si>
-  <si>
-    <t>21:41016</t>
-  </si>
-  <si>
-    <t>21:40515</t>
-  </si>
-  <si>
-    <t>21:41068</t>
-  </si>
-  <si>
-    <t>21:40396</t>
-  </si>
-  <si>
-    <t>21:40200</t>
-  </si>
-  <si>
-    <t>21:40358</t>
-  </si>
-  <si>
-    <t>21:40234</t>
-  </si>
-  <si>
-    <t>21:40420</t>
-  </si>
-  <si>
-    <t>21:40257</t>
-  </si>
-  <si>
-    <t>21:41023</t>
-  </si>
-  <si>
-    <t>21:40598</t>
-  </si>
-  <si>
-    <t>21:40184</t>
-  </si>
-  <si>
-    <t>21:40053</t>
-  </si>
-  <si>
-    <t>21:40196</t>
-  </si>
-  <si>
-    <t>21:41307</t>
-  </si>
-  <si>
-    <t>21:40102</t>
-  </si>
-  <si>
-    <t>21:41029</t>
-  </si>
-  <si>
-    <t>21:40611</t>
-  </si>
-  <si>
-    <t>21:41041</t>
-  </si>
-  <si>
-    <t>21:41392</t>
-  </si>
-  <si>
-    <t>21:40136</t>
-  </si>
-  <si>
-    <t>21:40410</t>
-  </si>
-  <si>
-    <t>21:40383</t>
-  </si>
-  <si>
-    <t>21:40524</t>
-  </si>
-  <si>
-    <t>21:40192</t>
-  </si>
-  <si>
-    <t>21:41044</t>
-  </si>
-  <si>
-    <t>21:40245</t>
-  </si>
-  <si>
-    <t>21:40310</t>
-  </si>
-  <si>
-    <t>21:40263</t>
-  </si>
-  <si>
-    <t>21:40119</t>
-  </si>
-  <si>
-    <t>21:40623</t>
-  </si>
-  <si>
-    <t>21:41323</t>
-  </si>
-  <si>
-    <t>21:40169</t>
-  </si>
-  <si>
-    <t>21:41372</t>
-  </si>
-  <si>
-    <t>21:40230</t>
-  </si>
-  <si>
-    <t>21:40749</t>
-  </si>
-  <si>
-    <t>21:40541</t>
-  </si>
-  <si>
-    <t>21:40323</t>
-  </si>
-  <si>
-    <t>21:40486</t>
-  </si>
-  <si>
-    <t>21:40231</t>
-  </si>
-  <si>
-    <t>21:41045</t>
-  </si>
-  <si>
-    <t>21:40314</t>
-  </si>
-  <si>
-    <t>21:40721</t>
-  </si>
-  <si>
-    <t>21:41067</t>
-  </si>
-  <si>
-    <t>21:41353</t>
-  </si>
-  <si>
-    <t>21:40382</t>
-  </si>
-  <si>
-    <t>21:41354</t>
-  </si>
-  <si>
-    <t>21:40558</t>
-  </si>
-  <si>
-    <t>21:40237</t>
-  </si>
-  <si>
-    <t>21:40482</t>
-  </si>
-  <si>
-    <t>21:40732</t>
-  </si>
-  <si>
-    <t>21:40174</t>
-  </si>
-  <si>
-    <t>21:41306</t>
-  </si>
-  <si>
-    <t>21:40350</t>
-  </si>
-  <si>
-    <t>21:40057</t>
-  </si>
-  <si>
-    <t>21:40806</t>
-  </si>
-  <si>
-    <t>21:40564</t>
-  </si>
-  <si>
-    <t>21:41325</t>
-  </si>
-  <si>
-    <t>21:40364</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>21:41114</t>
-  </si>
-  <si>
-    <t>21:40808</t>
-  </si>
-  <si>
-    <t>21:40270</t>
-  </si>
-  <si>
-    <t>21:40168</t>
-  </si>
-  <si>
-    <t>21:40034</t>
-  </si>
-  <si>
-    <t>21:41245</t>
-  </si>
-  <si>
-    <t>21:40386</t>
-  </si>
-  <si>
-    <t>21:40195</t>
-  </si>
-  <si>
-    <t>21:40613</t>
-  </si>
-  <si>
-    <t>21:41113</t>
-  </si>
-  <si>
-    <t>21:40126</t>
-  </si>
-  <si>
-    <t>21:40573</t>
-  </si>
-  <si>
-    <t>21:40048</t>
-  </si>
-  <si>
-    <t>21:40680</t>
-  </si>
-  <si>
-    <t>21:40610</t>
-  </si>
-  <si>
-    <t>21:41348</t>
-  </si>
-  <si>
-    <t>21:41049</t>
-  </si>
-  <si>
-    <t>21:41033</t>
-  </si>
-  <si>
-    <t>21:40123</t>
-  </si>
-  <si>
-    <t>21:41213</t>
-  </si>
-  <si>
-    <t>21:40145</t>
-  </si>
-  <si>
-    <t>21:41012</t>
-  </si>
-  <si>
-    <t>21:40437</t>
-  </si>
-  <si>
-    <t>21:40837</t>
-  </si>
-  <si>
-    <t>21:40124</t>
-  </si>
-  <si>
-    <t>21:40592</t>
-  </si>
-  <si>
-    <t>21:41308</t>
-  </si>
-  <si>
-    <t>21:41368</t>
-  </si>
-  <si>
-    <t>21:41224</t>
-  </si>
-  <si>
-    <t>21:40560</t>
-  </si>
-  <si>
-    <t>21:40190</t>
-  </si>
-  <si>
-    <t>21:40317</t>
-  </si>
-  <si>
-    <t>21:40036</t>
-  </si>
-  <si>
-    <t>21:40107</t>
-  </si>
-  <si>
-    <t>21:40419</t>
-  </si>
-  <si>
-    <t>21:40082</t>
-  </si>
-  <si>
-    <t>21:41210</t>
-  </si>
-  <si>
-    <t>21:40709</t>
-  </si>
-  <si>
-    <t>21:41122</t>
-  </si>
-  <si>
-    <t>21:40240</t>
-  </si>
-  <si>
-    <t>21:41232</t>
-  </si>
-  <si>
-    <t>21:41102</t>
-  </si>
-  <si>
-    <t>21:40532</t>
-  </si>
-  <si>
-    <t>21:40447</t>
-  </si>
-  <si>
-    <t>21:41072</t>
-  </si>
-  <si>
-    <t>21:40543</t>
-  </si>
-  <si>
-    <t>21:40499</t>
-  </si>
-  <si>
-    <t>21:40266</t>
-  </si>
-  <si>
-    <t>21:40384</t>
-  </si>
-  <si>
-    <t>21:40118</t>
-  </si>
-  <si>
-    <t>21:41025</t>
-  </si>
-  <si>
-    <t>21:40153</t>
-  </si>
-  <si>
-    <t>21:40377</t>
-  </si>
-  <si>
-    <t>21:40356</t>
-  </si>
-  <si>
-    <t>21:40393</t>
-  </si>
-  <si>
-    <t>21:41242</t>
-  </si>
-  <si>
-    <t>21:41321</t>
-  </si>
-  <si>
-    <t>21:41326</t>
-  </si>
-  <si>
-    <t>21:40172</t>
-  </si>
-  <si>
-    <t>21:41386</t>
-  </si>
-  <si>
-    <t>21:40407</t>
-  </si>
-  <si>
-    <t>21:40372</t>
-  </si>
-  <si>
-    <t>21:40740</t>
-  </si>
-  <si>
-    <t>21:40374</t>
-  </si>
-  <si>
-    <t>21:40076</t>
-  </si>
-  <si>
-    <t>21:40347</t>
-  </si>
-  <si>
-    <t>21:42180</t>
-  </si>
-  <si>
-    <t>21:40832</t>
-  </si>
-  <si>
-    <t>21:40408</t>
-  </si>
-  <si>
-    <t>21:40453</t>
-  </si>
-  <si>
-    <t>21:40031</t>
-  </si>
-  <si>
-    <t>21:41008</t>
-  </si>
-  <si>
-    <t>21:41125</t>
-  </si>
-  <si>
-    <t>21:40348</t>
-  </si>
-  <si>
-    <t>21:40108</t>
-  </si>
-  <si>
-    <t>21:40462</t>
-  </si>
-  <si>
-    <t>21:40220</t>
-  </si>
-  <si>
-    <t>21:40467</t>
-  </si>
-  <si>
-    <t>21:41010</t>
-  </si>
-  <si>
-    <t>21:21241</t>
-  </si>
-  <si>
-    <t>21:40362</t>
-  </si>
-  <si>
-    <t>21:41223</t>
-  </si>
-  <si>
-    <t>21:40693</t>
-  </si>
-  <si>
-    <t>21:40542</t>
-  </si>
-  <si>
-    <t>21:40125</t>
-  </si>
-  <si>
-    <t>21:41055</t>
-  </si>
-  <si>
-    <t>21:40096</t>
-  </si>
-  <si>
-    <t>21:40276</t>
-  </si>
-  <si>
-    <t>21:40334</t>
-  </si>
-  <si>
-    <t>21:41311</t>
-  </si>
-  <si>
-    <t>21:40401</t>
-  </si>
-  <si>
-    <t>21:40690</t>
-  </si>
-  <si>
-    <t>21:40071</t>
-  </si>
-  <si>
-    <t>21:40389</t>
-  </si>
-  <si>
-    <t>21:41138</t>
-  </si>
-  <si>
-    <t>21:41329</t>
-  </si>
-  <si>
-    <t>21:40845</t>
-  </si>
-  <si>
-    <t>21:40672</t>
-  </si>
-  <si>
-    <t>21:40728</t>
-  </si>
-  <si>
-    <t>21:40479</t>
-  </si>
-  <si>
-    <t>21:41019</t>
-  </si>
-  <si>
-    <t>21:41121</t>
-  </si>
-  <si>
-    <t>21:41390</t>
-  </si>
-  <si>
-    <t>21:40271</t>
-  </si>
-  <si>
-    <t>21:40077</t>
-  </si>
-  <si>
-    <t>21:40501</t>
-  </si>
-  <si>
-    <t>21:40539</t>
-  </si>
-  <si>
-    <t>21:41332</t>
-  </si>
-  <si>
-    <t>21:40268</t>
-  </si>
-  <si>
-    <t>21:40308</t>
-  </si>
-  <si>
-    <t>21:41330</t>
-  </si>
-  <si>
-    <t>21:40665</t>
-  </si>
-  <si>
-    <t>21:40033</t>
-  </si>
-  <si>
-    <t>21:40222</t>
-  </si>
-  <si>
-    <t>21:40219</t>
-  </si>
-  <si>
-    <t>21:40714</t>
-  </si>
-  <si>
-    <t>21:40176</t>
-  </si>
-  <si>
-    <t>21:41027</t>
-  </si>
-  <si>
-    <t>21:41240</t>
-  </si>
-  <si>
-    <t>21:40397</t>
-  </si>
-  <si>
-    <t>21:40596</t>
-  </si>
-  <si>
-    <t>21:40676</t>
-  </si>
-  <si>
-    <t>21:40038</t>
-  </si>
-  <si>
-    <t>21:41244</t>
-  </si>
-  <si>
-    <t>21:40207</t>
-  </si>
-  <si>
-    <t>21:40391</t>
-  </si>
-  <si>
-    <t>21:40086</t>
-  </si>
-  <si>
-    <t>21:40423</t>
-  </si>
-  <si>
-    <t>21:41093</t>
-  </si>
-  <si>
-    <t>21:41087</t>
-  </si>
-  <si>
-    <t>21:40738</t>
-  </si>
-  <si>
-    <t>21:40414</t>
-  </si>
-  <si>
-    <t>21:40189</t>
-  </si>
-  <si>
-    <t>21:40335</t>
-  </si>
-  <si>
-    <t>21:40012</t>
-  </si>
-  <si>
-    <t>21:40627</t>
-  </si>
-  <si>
-    <t>21:40144</t>
-  </si>
-  <si>
-    <t>21:41024</t>
-  </si>
-  <si>
-    <t>21:40109</t>
-  </si>
-  <si>
-    <t>21:41097</t>
-  </si>
-  <si>
-    <t>21:41085</t>
-  </si>
-  <si>
-    <t>21:40132</t>
-  </si>
-  <si>
-    <t>21:40586</t>
-  </si>
-  <si>
-    <t>21:40615</t>
-  </si>
-  <si>
-    <t>21:40026</t>
-  </si>
-  <si>
-    <t>21:40668</t>
-  </si>
-  <si>
-    <t>21:40834</t>
-  </si>
-  <si>
-    <t>21:40673</t>
-  </si>
-  <si>
-    <t>21:40295</t>
-  </si>
-  <si>
-    <t>21:40087</t>
-  </si>
-  <si>
-    <t>21:40373</t>
-  </si>
-  <si>
-    <t>21:40216</t>
-  </si>
-  <si>
-    <t>21:41071</t>
-  </si>
-  <si>
-    <t>21:40406</t>
-  </si>
-  <si>
-    <t>21:40813</t>
-  </si>
-  <si>
-    <t>21:41234</t>
-  </si>
-  <si>
-    <t>21:41057</t>
-  </si>
-  <si>
-    <t>21:40285</t>
-  </si>
-  <si>
-    <t>21:40104</t>
-  </si>
-  <si>
-    <t>21:40239</t>
-  </si>
-  <si>
-    <t>21:41381</t>
-  </si>
-  <si>
-    <t>21:41233</t>
-  </si>
-  <si>
-    <t>21:40528</t>
-  </si>
-  <si>
-    <t>21:40559</t>
-  </si>
-  <si>
-    <t>21:41002</t>
-  </si>
-  <si>
-    <t>21:40731</t>
-  </si>
-  <si>
-    <t>21:40070</t>
-  </si>
-  <si>
-    <t>21:40122</t>
-  </si>
-  <si>
-    <t>21:40304</t>
-  </si>
-  <si>
-    <t>21:40143</t>
-  </si>
-  <si>
-    <t>21:40441</t>
-  </si>
-  <si>
-    <t>21:40100</t>
-  </si>
-  <si>
-    <t>21:41088</t>
-  </si>
-  <si>
-    <t>21:40547</t>
-  </si>
-  <si>
-    <t>21:40264</t>
-  </si>
-  <si>
-    <t>21:40325</t>
-  </si>
-  <si>
-    <t>21:40217</t>
-  </si>
-  <si>
-    <t>21:40265</t>
-  </si>
-  <si>
-    <t>21:40148</t>
-  </si>
-  <si>
-    <t>21:40460</t>
-  </si>
-  <si>
-    <t>21:40339</t>
-  </si>
-  <si>
-    <t>21:40233</t>
-  </si>
-  <si>
-    <t>21:40687</t>
-  </si>
-  <si>
-    <t>21:41208</t>
-  </si>
-  <si>
-    <t>21:40134</t>
-  </si>
-  <si>
-    <t>21:40155</t>
-  </si>
-  <si>
-    <t>21:40842</t>
-  </si>
-  <si>
-    <t>21:41315</t>
-  </si>
-  <si>
-    <t>21:41083</t>
-  </si>
-  <si>
-    <t>21:40085</t>
-  </si>
-  <si>
-    <t>21:40409</t>
-  </si>
-  <si>
-    <t>21:41011</t>
-  </si>
-  <si>
-    <t>21:40578</t>
-  </si>
-  <si>
-    <t>21:40103</t>
-  </si>
-  <si>
-    <t>21:41143</t>
-  </si>
-  <si>
-    <t>21:40075</t>
-  </si>
-  <si>
-    <t>21:40110</t>
-  </si>
-  <si>
-    <t>21:40141</t>
-  </si>
-  <si>
-    <t>21:41399</t>
-  </si>
-  <si>
-    <t>21:40340</t>
-  </si>
-  <si>
-    <t>21:41042</t>
-  </si>
-  <si>
-    <t>21:40563</t>
-  </si>
-  <si>
-    <t>21:41135</t>
-  </si>
-  <si>
-    <t>21:40205</t>
-  </si>
-  <si>
-    <t>21:41337</t>
-  </si>
-  <si>
-    <t>21:40202</t>
-  </si>
-  <si>
-    <t>21:41320</t>
-  </si>
-  <si>
-    <t>21:40280</t>
-  </si>
-  <si>
-    <t>21:40451</t>
-  </si>
-  <si>
-    <t>21:40500</t>
-  </si>
-  <si>
-    <t>21:40534</t>
-  </si>
-  <si>
-    <t>21:41359</t>
-  </si>
-  <si>
-    <t>21:41014</t>
-  </si>
-  <si>
-    <t>21:40283</t>
-  </si>
-  <si>
-    <t>21:41082</t>
-  </si>
-  <si>
-    <t>21:41146</t>
-  </si>
-  <si>
-    <t>21:40111</t>
-  </si>
-  <si>
-    <t>21:41050</t>
-  </si>
-  <si>
-    <t>21:40047</t>
-  </si>
-  <si>
-    <t>21:40622</t>
-  </si>
-  <si>
-    <t>21:40694</t>
-  </si>
-  <si>
-    <t>21:40434</t>
-  </si>
-  <si>
-    <t>21:40188</t>
-  </si>
-  <si>
-    <t>21:40748</t>
-  </si>
-  <si>
-    <t>21:41382</t>
-  </si>
-  <si>
-    <t>21:40158</t>
-  </si>
-  <si>
-    <t>21:41064</t>
-  </si>
-  <si>
-    <t>21:41211</t>
-  </si>
-  <si>
-    <t>21:40157</t>
-  </si>
-  <si>
-    <t>21:41038</t>
-  </si>
-  <si>
-    <t>21:40571</t>
-  </si>
-  <si>
-    <t>21:40346</t>
-  </si>
-  <si>
-    <t>21:40619</t>
-  </si>
-  <si>
-    <t>21:40332</t>
-  </si>
-  <si>
-    <t>21:40662</t>
-  </si>
-  <si>
-    <t>21:41073</t>
-  </si>
-  <si>
-    <t>21:40476</t>
-  </si>
-  <si>
-    <t>21:41107</t>
-  </si>
-  <si>
-    <t>21:40843</t>
-  </si>
-  <si>
-    <t>21:41357</t>
-  </si>
-  <si>
-    <t>21:40028</t>
-  </si>
-  <si>
-    <t>21:41202</t>
-  </si>
-  <si>
-    <t>21:41105</t>
-  </si>
-  <si>
-    <t>21:41089</t>
-  </si>
-  <si>
-    <t>21:40498</t>
-  </si>
-  <si>
-    <t>21:40464</t>
-  </si>
-  <si>
-    <t>21:40099</t>
-  </si>
-  <si>
-    <t>21:41318</t>
-  </si>
-  <si>
-    <t>21:40182</t>
-  </si>
-  <si>
-    <t>21:41051</t>
-  </si>
-  <si>
-    <t>21:40821</t>
-  </si>
-  <si>
-    <t>21:40315</t>
-  </si>
-  <si>
-    <t>21:40297</t>
-  </si>
-  <si>
-    <t>21:40620</t>
-  </si>
-  <si>
-    <t>21:41126</t>
-  </si>
-  <si>
-    <t>21:40468</t>
-  </si>
-  <si>
-    <t>21:40429</t>
-  </si>
-  <si>
-    <t>21:40294</t>
-  </si>
-  <si>
-    <t>21:40538</t>
-  </si>
-  <si>
-    <t>21:40483</t>
-  </si>
-  <si>
-    <t>21:40840</t>
-  </si>
-  <si>
-    <t>21:40456</t>
-  </si>
-  <si>
-    <t>21:40491</t>
-  </si>
-  <si>
-    <t>21:40472</t>
-  </si>
-  <si>
-    <t>21:40307</t>
-  </si>
-  <si>
-    <t>21:40113</t>
-  </si>
-  <si>
-    <t>21:40063</t>
-  </si>
-  <si>
-    <t>21:40282</t>
-  </si>
-  <si>
-    <t>21:40098</t>
-  </si>
-  <si>
-    <t>21:40016</t>
-  </si>
-  <si>
-    <t>21:40186</t>
-  </si>
-  <si>
-    <t>21:40058</t>
-  </si>
-  <si>
-    <t>21:40743</t>
-  </si>
-  <si>
-    <t>21:41231</t>
-  </si>
-  <si>
-    <t>21:40019</t>
-  </si>
-  <si>
-    <t>21:40444</t>
-  </si>
-  <si>
-    <t>21:41100</t>
-  </si>
-  <si>
-    <t>21:40535</t>
-  </si>
-  <si>
-    <t>21:40011</t>
-  </si>
-  <si>
-    <t>21:40024</t>
-  </si>
-  <si>
-    <t>21:40678</t>
-  </si>
-  <si>
-    <t>21:40004</t>
-  </si>
-  <si>
-    <t>21:41148</t>
-  </si>
-  <si>
-    <t>21:40319</t>
-  </si>
-  <si>
-    <t>21:41059</t>
-  </si>
-  <si>
-    <t>21:40697</t>
-  </si>
-  <si>
-    <t>21:40008</t>
-  </si>
-  <si>
-    <t>21:40051</t>
-  </si>
-  <si>
-    <t>21:40007</t>
-  </si>
-  <si>
-    <t>21:41319</t>
-  </si>
-  <si>
-    <t>21:40707</t>
-  </si>
-  <si>
-    <t>21:40128</t>
-  </si>
-  <si>
-    <t>21:40413</t>
-  </si>
-  <si>
-    <t>21:41310</t>
-  </si>
-  <si>
-    <t>21:40093</t>
-  </si>
-  <si>
-    <t>21:41397</t>
-  </si>
-  <si>
-    <t>21:41101</t>
-  </si>
-  <si>
-    <t>21:40446</t>
-  </si>
-  <si>
-    <t>21:41250</t>
-  </si>
-  <si>
-    <t>21:40069</t>
-  </si>
-  <si>
-    <t>21:40068</t>
-  </si>
-  <si>
-    <t>21:40439</t>
-  </si>
-  <si>
-    <t>21:41393</t>
-  </si>
-  <si>
-    <t>21:40436</t>
-  </si>
-  <si>
-    <t>21:41365</t>
-  </si>
-  <si>
-    <t>21:41364</t>
-  </si>
-  <si>
-    <t>21:40587</t>
-  </si>
-  <si>
-    <t>21:40653</t>
-  </si>
-  <si>
-    <t>21:40497</t>
-  </si>
-  <si>
-    <t>21:41204</t>
-  </si>
-  <si>
-    <t>21:40151</t>
-  </si>
-  <si>
-    <t>21:40804</t>
-  </si>
-  <si>
-    <t>21:41034</t>
-  </si>
-  <si>
-    <t>21:41070</t>
-  </si>
-  <si>
-    <t>21:41017</t>
-  </si>
-  <si>
-    <t>21:40682</t>
-  </si>
-  <si>
-    <t>21:40844</t>
-  </si>
-  <si>
-    <t>21:40803</t>
-  </si>
-  <si>
-    <t>21:40669</t>
-  </si>
-  <si>
-    <t>21:40810</t>
-  </si>
-  <si>
-    <t>21:40030</t>
-  </si>
-  <si>
-    <t>21:40062</t>
-  </si>
-  <si>
-    <t>21:41134</t>
-  </si>
-  <si>
-    <t>21:41209</t>
-  </si>
-  <si>
-    <t>21:41235</t>
-  </si>
-  <si>
-    <t>21:40830</t>
-  </si>
-  <si>
-    <t>21:40328</t>
-  </si>
-  <si>
-    <t>21:40326</t>
-  </si>
-  <si>
-    <t>21:41342</t>
-  </si>
-  <si>
-    <t>21:40495</t>
-  </si>
-  <si>
-    <t>21:40074</t>
-  </si>
-  <si>
-    <t>21:40562</t>
-  </si>
-  <si>
-    <t>21:41350</t>
-  </si>
-  <si>
-    <t>21:40518</t>
-  </si>
-  <si>
-    <t>21:40177</t>
-  </si>
-  <si>
-    <t>21:41370</t>
-  </si>
-  <si>
-    <t>21:40260</t>
-  </si>
-  <si>
-    <t>21:40344</t>
-  </si>
-  <si>
-    <t>21:41103</t>
-  </si>
-  <si>
-    <t>21:40609</t>
-  </si>
-  <si>
-    <t>21:40286</t>
-  </si>
-  <si>
-    <t>21:40493</t>
-  </si>
-  <si>
-    <t>21:40828</t>
-  </si>
-  <si>
-    <t>21:40081</t>
-  </si>
-  <si>
-    <t>21:40826</t>
-  </si>
-  <si>
-    <t>21:40290</t>
-  </si>
-  <si>
-    <t>21:40706</t>
-  </si>
-  <si>
-    <t>21:41226</t>
-  </si>
-  <si>
-    <t>21:40337</t>
-  </si>
-  <si>
-    <t>21:40488</t>
-  </si>
-  <si>
-    <t>21:40580</t>
-  </si>
-  <si>
-    <t>21:40431</t>
-  </si>
-  <si>
-    <t>21:41120</t>
-  </si>
-  <si>
-    <t>21:40209</t>
-  </si>
-  <si>
-    <t>21:41013</t>
-  </si>
-  <si>
-    <t>21:41351</t>
-  </si>
-  <si>
-    <t>21:40251</t>
-  </si>
-  <si>
-    <t>21:40179</t>
-  </si>
-  <si>
-    <t>21:40258</t>
-  </si>
-  <si>
-    <t>21:40699</t>
-  </si>
-  <si>
-    <t>21:40812</t>
-  </si>
-  <si>
-    <t>21:41046</t>
-  </si>
-  <si>
-    <t>21:41040</t>
-  </si>
-  <si>
-    <t>21:41367</t>
-  </si>
-  <si>
-    <t>21:40730</t>
-  </si>
-  <si>
-    <t>21:40112</t>
-  </si>
-  <si>
-    <t>21:40689</t>
-  </si>
-  <si>
-    <t>21:40523</t>
-  </si>
-  <si>
-    <t>21:40392</t>
-  </si>
-  <si>
-    <t>21:40536</t>
-  </si>
-  <si>
-    <t>21:40311</t>
-  </si>
-  <si>
-    <t>21:40105</t>
-  </si>
-  <si>
-    <t>21:40712</t>
-  </si>
-  <si>
-    <t>21:40522</t>
-  </si>
-  <si>
-    <t>21:40585</t>
-  </si>
-  <si>
-    <t>21:41062</t>
-  </si>
-  <si>
-    <t>21:40229</t>
-  </si>
-  <si>
-    <t>21:40750</t>
-  </si>
-  <si>
-    <t>21:41239</t>
-  </si>
-  <si>
-    <t>21:40312</t>
-  </si>
-  <si>
-    <t>21:40149</t>
-  </si>
-  <si>
-    <t>21:41352</t>
-  </si>
-  <si>
-    <t>21:40517</t>
-  </si>
-  <si>
-    <t>21:40549</t>
-  </si>
-  <si>
-    <t>21:41066</t>
-  </si>
-  <si>
-    <t>21:41247</t>
-  </si>
-  <si>
-    <t>21:40094</t>
-  </si>
-  <si>
-    <t>21:40525</t>
-  </si>
-  <si>
-    <t>21:40841</t>
-  </si>
-  <si>
-    <t>21:40351</t>
-  </si>
-  <si>
-    <t>21:40055</t>
-  </si>
-  <si>
-    <t>21:41366</t>
-  </si>
-  <si>
-    <t>21:40379</t>
-  </si>
-  <si>
-    <t>21:40850</t>
-  </si>
-  <si>
-    <t>21:40269</t>
-  </si>
-  <si>
-    <t>21:41096</t>
-  </si>
-  <si>
-    <t>21:40221</t>
-  </si>
-  <si>
-    <t>21:41246</t>
-  </si>
-  <si>
-    <t>21:40605</t>
-  </si>
-  <si>
-    <t>21:40375</t>
-  </si>
-  <si>
-    <t>21:40727</t>
-  </si>
-  <si>
-    <t>21:40127</t>
-  </si>
-  <si>
-    <t>21:40249</t>
-  </si>
-  <si>
-    <t>21:41328</t>
-  </si>
-  <si>
-    <t>21:40681</t>
-  </si>
-  <si>
-    <t>21:41032</t>
-  </si>
-  <si>
-    <t>21:41220</t>
-  </si>
-  <si>
-    <t>21:40146</t>
-  </si>
-  <si>
-    <t>21:40838</t>
-  </si>
-  <si>
-    <t>21:41331</t>
-  </si>
-  <si>
-    <t>21:41374</t>
-  </si>
-  <si>
-    <t>21:40250</t>
-  </si>
-  <si>
-    <t>21:40388</t>
-  </si>
-  <si>
-    <t>21:40659</t>
-  </si>
-  <si>
-    <t>21:40042</t>
-  </si>
-  <si>
-    <t>21:40540</t>
-  </si>
-  <si>
-    <t>21:40561</t>
-  </si>
-  <si>
-    <t>21:40418</t>
-  </si>
-  <si>
-    <t>21:40084</t>
-  </si>
-  <si>
-    <t>21:40404</t>
-  </si>
-  <si>
-    <t>21:41028</t>
-  </si>
-  <si>
-    <t>21:40823</t>
-  </si>
-  <si>
-    <t>21:40520</t>
-  </si>
-  <si>
-    <t>21:41086</t>
-  </si>
-  <si>
-    <t>21:40544</t>
-  </si>
-  <si>
-    <t>21:40360</t>
-  </si>
-  <si>
-    <t>21:40120</t>
-  </si>
-  <si>
-    <t>21:40165</t>
-  </si>
-  <si>
-    <t>21:40288</t>
-  </si>
-  <si>
-    <t>21:40154</t>
-  </si>
-  <si>
-    <t>21:40394</t>
-  </si>
-  <si>
-    <t>21:40553</t>
-  </si>
-  <si>
-    <t>21:41322</t>
-  </si>
-  <si>
-    <t>21:40256</t>
-  </si>
-  <si>
-    <t>21:40376</t>
-  </si>
-  <si>
-    <t>21:40739</t>
-  </si>
-  <si>
-    <t>21:41215</t>
-  </si>
-  <si>
-    <t>21:40198</t>
-  </si>
-  <si>
-    <t>21:40685</t>
-  </si>
-  <si>
-    <t>21:40744</t>
-  </si>
-  <si>
-    <t>21:40061</t>
-  </si>
-  <si>
-    <t>21:40025</t>
-  </si>
-  <si>
-    <t>21:41124</t>
-  </si>
-  <si>
-    <t>21:40660</t>
-  </si>
-  <si>
-    <t>21:40529</t>
-  </si>
-  <si>
-    <t>21:40106</t>
-  </si>
-  <si>
-    <t>21:40463</t>
-  </si>
-  <si>
-    <t>21:40557</t>
-  </si>
-  <si>
-    <t>21:40299</t>
-  </si>
-  <si>
-    <t>21:40363</t>
-  </si>
-  <si>
-    <t>21:41335</t>
-  </si>
-  <si>
-    <t>21:41346</t>
-  </si>
-  <si>
-    <t>21:40060</t>
-  </si>
-  <si>
-    <t>21:41056</t>
-  </si>
-  <si>
-    <t>21:40223</t>
-  </si>
-  <si>
-    <t>21:40291</t>
-  </si>
-  <si>
-    <t>21:41203</t>
-  </si>
-  <si>
-    <t>21:40402</t>
-  </si>
-  <si>
-    <t>21:41147</t>
-  </si>
-  <si>
-    <t>21:40403</t>
-  </si>
-  <si>
-    <t>21:41131</t>
-  </si>
-  <si>
-    <t>21:41018</t>
-  </si>
-  <si>
-    <t>21:40724</t>
-  </si>
-  <si>
-    <t>21:40369</t>
-  </si>
-  <si>
-    <t>21:40272</t>
-  </si>
-  <si>
-    <t>21:40629</t>
-  </si>
-  <si>
-    <t>21:41047</t>
-  </si>
-  <si>
-    <t>21:40729</t>
-  </si>
-  <si>
-    <t>21:40309</t>
-  </si>
-  <si>
-    <t>21:40206</t>
-  </si>
-  <si>
-    <t>21:40039</t>
-  </si>
-  <si>
-    <t>21:40224</t>
-  </si>
-  <si>
-    <t>21:40717</t>
-  </si>
-  <si>
-    <t>21:41039</t>
-  </si>
-  <si>
-    <t>21:41312</t>
-  </si>
-  <si>
-    <t>21:41207</t>
-  </si>
-  <si>
-    <t>21:40700</t>
-  </si>
-  <si>
-    <t>21:40599</t>
-  </si>
-  <si>
-    <t>21:40296</t>
-  </si>
-  <si>
-    <t>21:40395</t>
-  </si>
-  <si>
-    <t>21:40424</t>
-  </si>
-  <si>
-    <t>21:40737</t>
-  </si>
-  <si>
-    <t>21:40320</t>
-  </si>
-  <si>
-    <t>21:40191</t>
-  </si>
-  <si>
-    <t>21:41118</t>
-  </si>
-  <si>
-    <t>21:40040</t>
-  </si>
-  <si>
-    <t>21:40203</t>
-  </si>
-  <si>
-    <t>21:41079</t>
-  </si>
-  <si>
-    <t>21:40428</t>
-  </si>
-  <si>
-    <t>21:40117</t>
-  </si>
-  <si>
-    <t>21:41129</t>
-  </si>
-  <si>
-    <t>21:40225</t>
-  </si>
-  <si>
-    <t>21:40666</t>
-  </si>
-  <si>
-    <t>21:40194</t>
-  </si>
-  <si>
-    <t>21:40088</t>
-  </si>
-  <si>
-    <t>21:40163</t>
-  </si>
-  <si>
-    <t>21:40331</t>
-  </si>
-  <si>
-    <t>21:41243</t>
-  </si>
-  <si>
-    <t>21:41060</t>
-  </si>
-  <si>
-    <t>21:40193</t>
-  </si>
-  <si>
-    <t>21:41333</t>
-  </si>
-  <si>
-    <t>21:40267</t>
-  </si>
-  <si>
-    <t>21:40569</t>
-  </si>
-  <si>
-    <t>21:40254</t>
-  </si>
-  <si>
-    <t>21:40121</t>
-  </si>
-  <si>
-    <t>21:40142</t>
-  </si>
-  <si>
-    <t>21:41391</t>
-  </si>
-  <si>
-    <t>21:40078</t>
-  </si>
-  <si>
-    <t>21:41090</t>
-  </si>
-  <si>
-    <t>21:40324</t>
-  </si>
-  <si>
-    <t>21:40181</t>
-  </si>
-  <si>
-    <t>21:40274</t>
-  </si>
-  <si>
-    <t>21:40458</t>
-  </si>
-  <si>
-    <t>21:40235</t>
-  </si>
-  <si>
-    <t>21:40135</t>
-  </si>
-  <si>
-    <t>21:40156</t>
-  </si>
-  <si>
-    <t>21:41084</t>
-  </si>
-  <si>
-    <t>21:40306</t>
-  </si>
-  <si>
-    <t>21:40398</t>
-  </si>
-  <si>
-    <t>21:40565</t>
-  </si>
-  <si>
-    <t>21:40162</t>
-  </si>
-  <si>
-    <t>21:40204</t>
-  </si>
-  <si>
-    <t>21:41043</t>
-  </si>
-  <si>
-    <t>21:40243</t>
-  </si>
-  <si>
-    <t>21:41229</t>
-  </si>
-  <si>
-    <t>21:40201</t>
-  </si>
-  <si>
-    <t>21:41334</t>
-  </si>
-  <si>
-    <t>21:40083</t>
-  </si>
-  <si>
-    <t>21:40387</t>
-  </si>
-  <si>
-    <t>21:40492</t>
-  </si>
-  <si>
-    <t>21:40533</t>
-  </si>
-  <si>
-    <t>21:40555</t>
-  </si>
-  <si>
-    <t>21:41214</t>
-  </si>
-  <si>
-    <t>21:40570</t>
-  </si>
-  <si>
-    <t>21:40421</t>
-  </si>
-  <si>
-    <t>21:40415</t>
-  </si>
-  <si>
-    <t>21:41009</t>
-  </si>
-  <si>
-    <t>21:41327</t>
-  </si>
-  <si>
-    <t>21:40336</t>
-  </si>
-  <si>
-    <t>21:40677</t>
-  </si>
-  <si>
-    <t>21:40338</t>
-  </si>
-  <si>
-    <t>21:40608</t>
-  </si>
-  <si>
-    <t>21:41063</t>
-  </si>
-  <si>
-    <t>21:40655</t>
-  </si>
-  <si>
-    <t>21:40807</t>
-  </si>
-  <si>
-    <t>21:41037</t>
-  </si>
-  <si>
-    <t>21:40262</t>
-  </si>
-  <si>
-    <t>21:40185</t>
-  </si>
-  <si>
-    <t>21:40164</t>
-  </si>
-  <si>
-    <t>21:40333</t>
-  </si>
-  <si>
-    <t>21:41078</t>
-  </si>
-  <si>
-    <t>21:41020</t>
-  </si>
-  <si>
-    <t>21:40054</t>
-  </si>
-  <si>
-    <t>21:41022</t>
-  </si>
-  <si>
-    <t>21:40027</t>
-  </si>
-  <si>
-    <t>21:40736</t>
-  </si>
-  <si>
-    <t>21:40747</t>
-  </si>
-  <si>
-    <t>21:41081</t>
-  </si>
-  <si>
-    <t>21:40092</t>
-  </si>
-  <si>
-    <t>21:40147</t>
-  </si>
-  <si>
-    <t>21:40253</t>
-  </si>
-  <si>
-    <t>21:41052</t>
-  </si>
-  <si>
-    <t>21:41317</t>
-  </si>
-  <si>
-    <t>21:40298</t>
-  </si>
-  <si>
-    <t>21:41127</t>
-  </si>
-  <si>
-    <t>21:40602</t>
-  </si>
-  <si>
-    <t>21:40422</t>
-  </si>
-  <si>
-    <t>21:40091</t>
-  </si>
-  <si>
-    <t>21:40457</t>
-  </si>
-  <si>
-    <t>21:41309</t>
-  </si>
-  <si>
-    <t>21:40302</t>
-  </si>
-  <si>
-    <t>21:40303</t>
-  </si>
-  <si>
-    <t>21:40064</t>
+    <t xml:space="preserve"> 0:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8813</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8529</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8841</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8502</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8435</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8699</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8462</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8896</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8651</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8477</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8317</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8527</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8830</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8332</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8824</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8690</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8663</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8422</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8271</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8913</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8378</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8871</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8675</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8305</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8389</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8809</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8986</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8380</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8487</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8804</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9039</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8636</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8393</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8676</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8479</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8654</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8590</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8545</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8310</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8360</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8321</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8805</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8997</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8428</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8815</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8324</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8515</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8607</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8436</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8881</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8648</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8549</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8963</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8434</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8670</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8469</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8472</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8536</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8277</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8633</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8565</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8671</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8611</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8413</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8355</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8621</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8522</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8347</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8330</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8408</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8960</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8952</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8405</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8531</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8452</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8614</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8992</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8959</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8965</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8455</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8659</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8282</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8582</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8335</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8970</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8693</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8559</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8438</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8458</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8466</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8610</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8369</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8593</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8632</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8591</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8494</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8295</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8576</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8528</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8387</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8668</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8638</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8437</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8481</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8984</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8812</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8546</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8987</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8429</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8543</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8284</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8807</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9031</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8615</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8891</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8975</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8826</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8495</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8855</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8680</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8520</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8696</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8757</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8338</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8677</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8988</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8516</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8561</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8264</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8874</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8294</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8661</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8652</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8679</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8417</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8597</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8488</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8982</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8821</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8630</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8801</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8334</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8287</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8993</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8623</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8585</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8672</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8650</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8686</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8601</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8977</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8418</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8465</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8459</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8694</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8382</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8461</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8503</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8989</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8373</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8592</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8802</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8508</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8416</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8289</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8304</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8290</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8478</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8595</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8454</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8340</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8329</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8518</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8664</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8439</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8269</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8897</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8484</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8510</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8577</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9038</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8644</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8392</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8283</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8486</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8444</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8491</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8534</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8552</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8803</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8315</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8419</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8578</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8532</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8645</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8695</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8564</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8457</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8296</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8628</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8343</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8634</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8629</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8450</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8566</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8525</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8603</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8298</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8299</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8451</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8526</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8496</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8285</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8854</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8286</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8834</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8839</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8540</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8624</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8697</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8447</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8430</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8473</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8646</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8580</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8890</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8605</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8827</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8691</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8553</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8279</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8313</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8396</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8560</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8471</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8302</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8587</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8470</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8968</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8983</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8966</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8535</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8318</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8511</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8411</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8658</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8501</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8384</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8639</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8480</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8506</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8581</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8873</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8297</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8517</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8833</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8346</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8912</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8574</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8395</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8586</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8575</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8868</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8278</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8489</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8348</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8604</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8880</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8306</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8599</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8474</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8971</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8275</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8509</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8810</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8292</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8468</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8493</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8460</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8831</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8499</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8538</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8852</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8339</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8544</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8266</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8424</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:902</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8811</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8325</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8523</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8647</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8421</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8978</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8498</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8280</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8547</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8319</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8817</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8806</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8521</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8816</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8463</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8381</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8844</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:9045</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8453</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8895</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900:8612</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41349</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40159</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40478</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40466</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40059</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40612</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41227</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40442</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40735</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40527</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40449</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41248</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40405</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40696</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41140</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40726</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40719</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41360</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41222</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40412</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41142</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41238</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40279</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41394</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40433</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40816</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40720</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40438</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40480</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40435</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40214</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40591</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40652</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40496</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40604</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41216</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41206</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40805</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41035</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40849</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40822</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40566</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40848</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40470</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40664</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40802</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40809</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40366</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40236</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40227</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40686</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41236</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41361</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40593</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40817</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40572</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40494</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40073</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40836</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41302</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40847</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40448</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41369</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40459</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40343</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40450</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40601</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40287</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40833</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40827</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40080</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40825</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40481</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40289</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40621</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40465</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40292</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40683</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40487</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41116</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41228</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40130</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40515</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40396</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40358</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40257</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40598</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40184</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40196</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41307</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40611</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41392</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40136</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40410</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40383</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40524</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41044</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40245</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40310</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40263</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40623</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41323</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40169</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40749</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40323</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40486</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40231</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41045</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40721</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41353</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40382</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40558</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40237</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40482</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40732</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40174</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41306</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40806</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40564</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41325</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40364</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40808</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40270</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40168</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41245</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40195</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41113</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40680</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40610</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41348</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41213</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40145</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40437</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40837</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40124</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40592</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41368</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40560</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40190</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40317</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40107</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40419</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40082</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40709</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41122</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40532</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40447</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41072</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40543</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40499</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40266</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40384</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40118</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40153</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40377</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40356</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40393</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41242</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41321</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40172</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40407</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40740</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40374</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40076</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40347</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:42180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40832</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40408</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40453</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40031</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40348</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40462</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40220</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40467</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:21241</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40362</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41223</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40693</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40542</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40096</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40276</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40334</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41311</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40690</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40389</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41329</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40845</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40672</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40728</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40479</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40271</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40077</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40501</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40539</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41332</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40268</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41330</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40222</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40176</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40397</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40596</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40676</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40038</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41244</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40207</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40391</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40086</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41093</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40738</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40414</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40189</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40335</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40627</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40144</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41097</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40132</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40586</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40615</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40668</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40834</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40673</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40295</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40373</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40216</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40406</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40813</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40285</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41381</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41233</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40528</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40559</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40731</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40070</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40122</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40304</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40441</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41088</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40547</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40264</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40325</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40217</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40265</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40148</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40460</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40339</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40233</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40687</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41208</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40134</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40155</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40842</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41315</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40409</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40578</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40141</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40340</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41042</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40563</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41135</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41337</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40280</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40451</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40534</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40283</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41082</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41146</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40622</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40694</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40434</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40188</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40748</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41382</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40158</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41064</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40157</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41038</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40346</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40619</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40332</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40662</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41073</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40476</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41107</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41357</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41089</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40498</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40099</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41318</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40182</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41051</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40821</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40315</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40297</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40620</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40468</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40429</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40294</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40538</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40483</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40840</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40491</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40472</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40307</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40113</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40063</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40282</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40098</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40186</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40058</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40743</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41231</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40444</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40535</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41148</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40319</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41059</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40697</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40051</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41319</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40707</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40128</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40413</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41310</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40093</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41397</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40446</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40439</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41393</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40436</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41364</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40587</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40653</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40497</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40151</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40804</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41070</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40682</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40844</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40803</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40669</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40810</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40030</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40062</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41134</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40830</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40328</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40495</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40074</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40562</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40518</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40177</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40344</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40609</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40286</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40493</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40081</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40826</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40290</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40706</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41226</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40337</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40488</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40580</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40431</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41351</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40251</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40179</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40699</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40812</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41040</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40730</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40689</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40523</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40392</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40536</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40311</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40712</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40522</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40585</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41062</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40750</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40312</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40149</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41352</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40517</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40549</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41066</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41247</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40094</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40525</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40841</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40351</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41366</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40379</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40850</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40269</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41096</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40221</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40605</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40375</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40727</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40127</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40249</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41328</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40681</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41220</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40146</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40838</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41374</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40388</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40659</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40042</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40540</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40561</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40418</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40084</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40404</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40823</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40520</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41086</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40544</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40360</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40165</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40394</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40553</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40256</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40376</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40739</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41215</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40198</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40685</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40744</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40061</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41124</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40660</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40529</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40106</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40463</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40557</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40299</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40363</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41335</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41346</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40060</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40223</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41203</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40402</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41147</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40403</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40724</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40369</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40272</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40629</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40729</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40206</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40039</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40717</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41039</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41312</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41207</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40599</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40296</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40395</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40424</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40737</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40191</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41118</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40040</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40203</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41079</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40428</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40117</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40225</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40666</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40088</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40163</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41243</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41060</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40193</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40142</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41391</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41090</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40324</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40181</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40274</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40458</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40135</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40156</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41084</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40306</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40398</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40565</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40162</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40243</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41334</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40387</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40492</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40555</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41214</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40570</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40421</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40415</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40677</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40338</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41063</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40655</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40807</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40185</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40054</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40736</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40747</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41081</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40092</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40147</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41317</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40298</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41127</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40422</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40457</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:41309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40302</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40064</t>
   </si>
 </sst>
 </file>
